--- a/Backlogs/Sprint Backlog 4.xlsx
+++ b/Backlogs/Sprint Backlog 4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\CSE 327\Project\Backlogs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D39110-D6D4-492F-BC17-C626370DC230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+  <si>
+    <t>Sl. No.</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Code the class</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Test the class</t>
+  </si>
+  <si>
+    <t>Test the system</t>
+  </si>
+  <si>
+    <t>Code the necessary classes</t>
+  </si>
+  <si>
+    <t>Test the classes</t>
+  </si>
+  <si>
+    <t>Sprint Backlog - 4</t>
+  </si>
+  <si>
+    <t>As a shop owner, have different accounts and have access to create new accounts so that, I can get privilege to my manager(s) and me</t>
+  </si>
+  <si>
+    <t>As shop owner, have access of all the items in a software and the managers should have a selected few items so that, I can get the overall view and the managers can use only the items selected by me</t>
+  </si>
+  <si>
+    <t>As a manager, Have a product refund and return system so that, when customer returns a product it can go back in the inventory</t>
+  </si>
+  <si>
+    <t>Design the user database</t>
+  </si>
+  <si>
+    <t>Design the user interface</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +154,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +500,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>